--- a/Sample/chronogramme.xlsx
+++ b/Sample/chronogramme.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien.mousqueton@computacenter.com/Code/rempar/Sample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE586D-0101-9549-8B53-E4C5E3C25891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="615">
   <si>
     <t>id</t>
   </si>
@@ -1865,13 +1871,16 @@
   </si>
   <si>
     <t>Brouillon communiqué</t>
+  </si>
+  <si>
+    <t>decompte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1934,13 +1943,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1978,7 +1995,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2012,6 +2029,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2046,9 +2064,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2221,14 +2240,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2283,7 +2309,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2338,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>129</v>
       </c>
@@ -2326,7 +2352,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2381,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>131</v>
       </c>
@@ -2372,7 +2398,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>132</v>
       </c>
@@ -2386,7 +2412,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -2403,7 +2429,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2432,7 +2458,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>135</v>
       </c>
@@ -2449,7 +2475,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>136</v>
       </c>
@@ -2466,7 +2492,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>137</v>
       </c>
@@ -2480,7 +2506,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2509,7 +2535,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2535,7 +2561,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2564,7 +2590,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>141</v>
       </c>
@@ -2581,7 +2607,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2610,7 +2636,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>143</v>
       </c>
@@ -2624,7 +2650,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2676,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>145</v>
       </c>
@@ -2664,7 +2690,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2693,7 +2719,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2722,7 +2748,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2751,7 +2777,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>149</v>
       </c>
@@ -2765,7 +2791,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>150</v>
       </c>
@@ -2779,7 +2805,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>151</v>
       </c>
@@ -2793,7 +2819,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>152</v>
       </c>
@@ -2807,7 +2833,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>153</v>
       </c>
@@ -2821,7 +2847,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +2876,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>155</v>
       </c>
@@ -2864,7 +2890,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2893,7 +2919,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2922,7 +2948,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>158</v>
       </c>
@@ -2936,7 +2962,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>159</v>
       </c>
@@ -2950,7 +2976,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2979,7 +3005,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>161</v>
       </c>
@@ -2993,7 +3019,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>162</v>
       </c>
@@ -3010,7 +3036,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>163</v>
       </c>
@@ -3024,7 +3050,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -3050,7 +3076,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -3076,7 +3102,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -3105,7 +3131,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>167</v>
       </c>
@@ -3119,7 +3145,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>168</v>
       </c>
@@ -3136,7 +3162,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>169</v>
       </c>
@@ -3150,7 +3176,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>170</v>
       </c>
@@ -3164,7 +3190,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -3193,7 +3219,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -3219,7 +3245,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>173</v>
       </c>
@@ -3233,7 +3259,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>174</v>
       </c>
@@ -3247,7 +3273,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>175</v>
       </c>
@@ -3261,7 +3287,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>176</v>
       </c>
@@ -3275,7 +3301,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>177</v>
       </c>
@@ -3289,7 +3315,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>178</v>
       </c>
@@ -3306,7 +3332,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>179</v>
       </c>
@@ -3320,7 +3346,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -3349,7 +3375,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -3378,7 +3404,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -3407,7 +3433,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3436,7 +3462,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>184</v>
       </c>
@@ -3450,7 +3476,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3479,7 +3505,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>186</v>
       </c>
@@ -3493,7 +3519,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>187</v>
       </c>
@@ -3507,7 +3533,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3536,7 +3562,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -3565,7 +3591,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -3594,7 +3620,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>191</v>
       </c>
@@ -3608,7 +3634,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>192</v>
       </c>
@@ -3625,7 +3651,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>193</v>
       </c>
@@ -3642,7 +3668,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>194</v>
       </c>
@@ -3656,7 +3682,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -3685,7 +3711,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>196</v>
       </c>
@@ -3699,7 +3725,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -3728,7 +3754,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>198</v>
       </c>
@@ -3742,7 +3768,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>199</v>
       </c>
@@ -3759,7 +3785,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -3785,7 +3811,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -3811,7 +3837,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>202</v>
       </c>
@@ -3825,7 +3851,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -3854,7 +3880,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>204</v>
       </c>
@@ -3868,7 +3894,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3897,7 +3923,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>206</v>
       </c>
@@ -3911,7 +3937,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>207</v>
       </c>
@@ -3925,7 +3951,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3954,7 +3980,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -3980,7 +4006,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>210</v>
       </c>
@@ -3994,7 +4020,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -4023,7 +4049,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>212</v>
       </c>
@@ -4037,7 +4063,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>213</v>
       </c>
@@ -4051,7 +4077,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>214</v>
       </c>
@@ -4068,7 +4094,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -4097,7 +4123,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -4123,7 +4149,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -4152,7 +4178,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -4181,7 +4207,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>219</v>
       </c>
@@ -4195,7 +4221,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -4224,7 +4250,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -4253,7 +4279,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>222</v>
       </c>
@@ -4270,7 +4296,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>223</v>
       </c>
@@ -4287,7 +4313,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>224</v>
       </c>
@@ -4301,7 +4327,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>53</v>
       </c>
@@ -4327,7 +4353,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>226</v>
       </c>
@@ -4341,7 +4367,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -4370,7 +4396,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>55</v>
       </c>
@@ -4399,7 +4425,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -4425,7 +4451,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -4454,7 +4480,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -4480,7 +4506,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -4506,7 +4532,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>233</v>
       </c>
@@ -4520,7 +4546,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>234</v>
       </c>
@@ -4534,7 +4560,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -4563,7 +4589,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>236</v>
       </c>
@@ -4577,7 +4603,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>237</v>
       </c>
@@ -4591,7 +4617,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>238</v>
       </c>
@@ -4605,7 +4631,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -4634,7 +4660,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -4663,7 +4689,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>241</v>
       </c>
@@ -4680,7 +4706,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>242</v>
       </c>
@@ -4694,21 +4720,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>388</v>
-      </c>
-      <c r="D118" t="s">
-        <v>398</v>
-      </c>
-      <c r="F118" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>614</v>
+      </c>
+      <c r="F118">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>244</v>
       </c>
@@ -4722,7 +4745,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>245</v>
       </c>
@@ -4736,7 +4759,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>246</v>
       </c>
@@ -4753,7 +4776,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -4782,7 +4805,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>64</v>
       </c>
@@ -4811,7 +4834,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>249</v>
       </c>
@@ -4825,7 +4848,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>250</v>
       </c>
@@ -4839,7 +4862,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>251</v>
       </c>
@@ -4853,7 +4876,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>252</v>
       </c>
@@ -4870,7 +4893,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -4899,7 +4922,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>254</v>
       </c>
@@ -4913,7 +4936,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>66</v>
       </c>
@@ -4942,7 +4965,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>67</v>
       </c>
@@ -4971,7 +4994,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>257</v>
       </c>
@@ -4985,7 +5008,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>258</v>
       </c>
@@ -4999,7 +5022,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>259</v>
       </c>
@@ -5016,7 +5039,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>68</v>
       </c>
@@ -5045,7 +5068,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>261</v>
       </c>
@@ -5059,7 +5082,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -5088,7 +5111,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>70</v>
       </c>
@@ -5114,7 +5137,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>71</v>
       </c>
@@ -5143,7 +5166,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>265</v>
       </c>
@@ -5157,7 +5180,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -5186,7 +5209,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>267</v>
       </c>
@@ -5200,7 +5223,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>73</v>
       </c>
@@ -5229,7 +5252,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>269</v>
       </c>
@@ -5243,7 +5266,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>270</v>
       </c>
@@ -5260,7 +5283,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>74</v>
       </c>
@@ -5286,7 +5309,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>272</v>
       </c>
@@ -5303,7 +5326,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>273</v>
       </c>
@@ -5317,7 +5340,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>274</v>
       </c>
@@ -5334,7 +5357,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>75</v>
       </c>
@@ -5360,7 +5383,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>276</v>
       </c>
@@ -5374,7 +5397,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>76</v>
       </c>
@@ -5400,7 +5423,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>77</v>
       </c>
@@ -5429,7 +5452,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>78</v>
       </c>
@@ -5458,7 +5481,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>280</v>
       </c>
@@ -5475,7 +5498,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -5504,7 +5527,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>80</v>
       </c>
@@ -5533,7 +5556,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>283</v>
       </c>
@@ -5547,7 +5570,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>284</v>
       </c>
@@ -5561,7 +5584,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>81</v>
       </c>
@@ -5590,7 +5613,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>82</v>
       </c>
@@ -5619,7 +5642,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>83</v>
       </c>
@@ -5648,7 +5671,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>288</v>
       </c>
@@ -5665,7 +5688,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>84</v>
       </c>
@@ -5694,7 +5717,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>290</v>
       </c>
@@ -5708,7 +5731,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>291</v>
       </c>
@@ -5722,7 +5745,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>292</v>
       </c>
@@ -5736,7 +5759,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>293</v>
       </c>
@@ -5753,7 +5776,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>85</v>
       </c>
@@ -5782,7 +5805,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>86</v>
       </c>
@@ -5808,7 +5831,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>296</v>
       </c>
@@ -5825,7 +5848,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>297</v>
       </c>
@@ -5839,7 +5862,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>298</v>
       </c>
@@ -5853,7 +5876,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>87</v>
       </c>
@@ -5882,7 +5905,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>88</v>
       </c>
@@ -5911,7 +5934,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -5937,7 +5960,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>302</v>
       </c>
@@ -5954,7 +5977,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>303</v>
       </c>
@@ -5968,7 +5991,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -5997,7 +6020,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>305</v>
       </c>
@@ -6011,7 +6034,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>91</v>
       </c>
@@ -6040,7 +6063,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>92</v>
       </c>
@@ -6069,7 +6092,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>93</v>
       </c>
@@ -6095,7 +6118,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>309</v>
       </c>
@@ -6109,7 +6132,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>310</v>
       </c>
@@ -6123,7 +6146,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>311</v>
       </c>
@@ -6137,7 +6160,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>94</v>
       </c>
@@ -6166,7 +6189,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>313</v>
       </c>
@@ -6180,7 +6203,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -6209,7 +6232,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>315</v>
       </c>
@@ -6226,7 +6249,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>96</v>
       </c>
@@ -6255,7 +6278,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>97</v>
       </c>
@@ -6284,7 +6307,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>318</v>
       </c>
@@ -6298,7 +6321,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>319</v>
       </c>
@@ -6312,7 +6335,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>320</v>
       </c>
@@ -6326,7 +6349,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>98</v>
       </c>
@@ -6355,7 +6378,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>322</v>
       </c>
@@ -6372,7 +6395,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>99</v>
       </c>
@@ -6401,7 +6424,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>100</v>
       </c>
@@ -6430,7 +6453,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>325</v>
       </c>
@@ -6447,7 +6470,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>326</v>
       </c>
@@ -6461,7 +6484,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>327</v>
       </c>
@@ -6475,7 +6498,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>328</v>
       </c>
@@ -6489,7 +6512,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>101</v>
       </c>
@@ -6518,7 +6541,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>102</v>
       </c>
@@ -6544,7 +6567,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>103</v>
       </c>
@@ -6573,7 +6596,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -6602,7 +6625,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>333</v>
       </c>
@@ -6616,7 +6639,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>334</v>
       </c>
@@ -6630,7 +6653,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>105</v>
       </c>
@@ -6659,7 +6682,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>106</v>
       </c>
@@ -6688,7 +6711,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>107</v>
       </c>
@@ -6717,7 +6740,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>338</v>
       </c>
@@ -6731,7 +6754,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>108</v>
       </c>
@@ -6757,7 +6780,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>340</v>
       </c>
@@ -6771,7 +6794,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>341</v>
       </c>
@@ -6788,7 +6811,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>342</v>
       </c>
@@ -6802,7 +6825,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>343</v>
       </c>
@@ -6819,7 +6842,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>344</v>
       </c>
@@ -6833,7 +6856,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>345</v>
       </c>
@@ -6847,7 +6870,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>109</v>
       </c>
@@ -6876,7 +6899,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>110</v>
       </c>
@@ -6905,7 +6928,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>111</v>
       </c>
@@ -6934,7 +6957,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>112</v>
       </c>
@@ -6963,7 +6986,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>113</v>
       </c>
@@ -6992,7 +7015,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>351</v>
       </c>
@@ -7006,7 +7029,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>114</v>
       </c>
@@ -7035,7 +7058,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>353</v>
       </c>
@@ -7049,7 +7072,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>354</v>
       </c>
@@ -7066,7 +7089,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>355</v>
       </c>
@@ -7083,7 +7106,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>115</v>
       </c>
@@ -7112,7 +7135,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -7138,7 +7161,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>117</v>
       </c>
@@ -7167,7 +7190,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>359</v>
       </c>
@@ -7181,7 +7204,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>360</v>
       </c>
@@ -7195,7 +7218,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>118</v>
       </c>
@@ -7224,7 +7247,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>362</v>
       </c>
@@ -7238,7 +7261,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>119</v>
       </c>
@@ -7267,7 +7290,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>364</v>
       </c>
@@ -7281,7 +7304,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>365</v>
       </c>
@@ -7295,7 +7318,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>366</v>
       </c>
@@ -7309,7 +7332,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>367</v>
       </c>
@@ -7323,7 +7346,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>368</v>
       </c>
@@ -7337,7 +7360,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>369</v>
       </c>
@@ -7351,7 +7374,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>370</v>
       </c>
@@ -7365,7 +7388,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>120</v>
       </c>
@@ -7394,7 +7417,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>121</v>
       </c>
@@ -7423,7 +7446,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>373</v>
       </c>
@@ -7437,7 +7460,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>374</v>
       </c>
@@ -7451,7 +7474,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>375</v>
       </c>
@@ -7465,7 +7488,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>376</v>
       </c>
@@ -7482,7 +7505,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>122</v>
       </c>
@@ -7511,7 +7534,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>378</v>
       </c>
@@ -7528,7 +7551,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>123</v>
       </c>
@@ -7557,7 +7580,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>380</v>
       </c>
@@ -7571,7 +7594,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>124</v>
       </c>
@@ -7600,7 +7623,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>382</v>
       </c>
@@ -7614,7 +7637,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>383</v>
       </c>
@@ -7631,7 +7654,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>125</v>
       </c>
@@ -7660,7 +7683,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>385</v>
       </c>
@@ -7674,7 +7697,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>126</v>
       </c>

--- a/Sample/chronogramme.xlsx
+++ b/Sample/chronogramme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien.mousqueton@computacenter.com/Code/rempar/Sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE586D-0101-9549-8B53-E4C5E3C25891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E8C2E-EC26-F347-AAF0-990B6989D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -1507,22 +1507,13 @@
     <t>Mise à jour de la situation en cours. #RH</t>
   </si>
   <si>
-    <t>Communication en préparation. #BD #securite #juridique</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coordination avec les parties prenantes. </t>
   </si>
   <si>
     <t>Pouvez-vous préparer un résumé d’une page pour diffusion interne ? #securite</t>
   </si>
   <si>
-    <t>Analyse des journaux en cours. #IT</t>
-  </si>
-  <si>
     <t>Information au public à venir. #RGPD #IT #crise</t>
-  </si>
-  <si>
-    <t>Coordination avec les parties prenantes. #BD #SI</t>
   </si>
   <si>
     <t>Rétablissement progressif des services. #cloud #communication #prod</t>
@@ -2244,7 +2235,7 @@
   <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2303,10 +2294,10 @@
         <v>406</v>
       </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2329,13 +2320,13 @@
         <v>407</v>
       </c>
       <c r="G3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2372,13 +2363,13 @@
         <v>409</v>
       </c>
       <c r="G5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2395,7 +2386,7 @@
         <v>410</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,7 +2417,7 @@
         <v>412</v>
       </c>
       <c r="H8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2449,13 +2440,13 @@
         <v>413</v>
       </c>
       <c r="G9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2472,7 +2463,7 @@
         <v>414</v>
       </c>
       <c r="H10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,7 +2480,7 @@
         <v>415</v>
       </c>
       <c r="H11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2526,13 +2517,13 @@
         <v>406</v>
       </c>
       <c r="G13" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2555,10 +2546,10 @@
         <v>417</v>
       </c>
       <c r="G14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2581,13 +2572,13 @@
         <v>418</v>
       </c>
       <c r="G15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H15" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I15" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2604,7 +2595,7 @@
         <v>419</v>
       </c>
       <c r="H16" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2627,13 +2618,13 @@
         <v>420</v>
       </c>
       <c r="G17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H17" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I17" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2670,10 +2661,10 @@
         <v>422</v>
       </c>
       <c r="G19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H19" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2710,13 +2701,13 @@
         <v>406</v>
       </c>
       <c r="G21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2739,13 +2730,13 @@
         <v>424</v>
       </c>
       <c r="G22" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H22" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I22" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,13 +2759,13 @@
         <v>425</v>
       </c>
       <c r="G23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H23" t="s">
+        <v>607</v>
+      </c>
+      <c r="I23" t="s">
         <v>610</v>
-      </c>
-      <c r="I23" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2867,13 +2858,13 @@
         <v>424</v>
       </c>
       <c r="G29" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H29" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I29" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2910,13 +2901,13 @@
         <v>432</v>
       </c>
       <c r="G31" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H31" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I31" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2939,13 +2930,13 @@
         <v>418</v>
       </c>
       <c r="G32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H32" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I32" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2996,13 +2987,13 @@
         <v>435</v>
       </c>
       <c r="G35" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H35" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3033,7 +3024,7 @@
         <v>437</v>
       </c>
       <c r="H37" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3070,10 +3061,10 @@
         <v>420</v>
       </c>
       <c r="G39" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H39" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3096,10 +3087,10 @@
         <v>424</v>
       </c>
       <c r="G40" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H40" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3122,13 +3113,13 @@
         <v>439</v>
       </c>
       <c r="G41" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H41" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I41" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3159,7 +3150,7 @@
         <v>440</v>
       </c>
       <c r="H43" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3210,13 +3201,13 @@
         <v>406</v>
       </c>
       <c r="G46" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H46" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I46" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3239,10 +3230,10 @@
         <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H47" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3329,7 +3320,7 @@
         <v>446</v>
       </c>
       <c r="H53" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3366,13 +3357,13 @@
         <v>422</v>
       </c>
       <c r="G55" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H55" t="s">
+        <v>606</v>
+      </c>
+      <c r="I55" t="s">
         <v>609</v>
-      </c>
-      <c r="I55" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3395,13 +3386,13 @@
         <v>448</v>
       </c>
       <c r="G56" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H56" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I56" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3424,13 +3415,13 @@
         <v>418</v>
       </c>
       <c r="G57" t="s">
+        <v>598</v>
+      </c>
+      <c r="H57" t="s">
         <v>601</v>
       </c>
-      <c r="H57" t="s">
-        <v>604</v>
-      </c>
       <c r="I57" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3453,13 +3444,13 @@
         <v>449</v>
       </c>
       <c r="G58" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H58" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I58" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3496,13 +3487,13 @@
         <v>406</v>
       </c>
       <c r="G60" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H60" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I60" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3553,13 +3544,13 @@
         <v>417</v>
       </c>
       <c r="G63" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H63" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I63" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3582,13 +3573,13 @@
         <v>424</v>
       </c>
       <c r="G64" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H64" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I64" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3611,13 +3602,13 @@
         <v>453</v>
       </c>
       <c r="G65" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H65" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I65" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3648,7 +3639,7 @@
         <v>455</v>
       </c>
       <c r="H67" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3665,7 +3656,7 @@
         <v>456</v>
       </c>
       <c r="H68" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3702,13 +3693,13 @@
         <v>458</v>
       </c>
       <c r="G70" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H70" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I70" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3745,13 +3736,13 @@
         <v>460</v>
       </c>
       <c r="G72" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H72" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I72" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3782,7 +3773,7 @@
         <v>461</v>
       </c>
       <c r="H74" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3805,10 +3796,10 @@
         <v>462</v>
       </c>
       <c r="G75" t="s">
+        <v>600</v>
+      </c>
+      <c r="H75" t="s">
         <v>603</v>
-      </c>
-      <c r="H75" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3831,10 +3822,10 @@
         <v>463</v>
       </c>
       <c r="G76" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H76" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3871,13 +3862,13 @@
         <v>465</v>
       </c>
       <c r="G78" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H78" t="s">
+        <v>607</v>
+      </c>
+      <c r="I78" t="s">
         <v>610</v>
-      </c>
-      <c r="I78" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3914,13 +3905,13 @@
         <v>422</v>
       </c>
       <c r="G80" t="s">
+        <v>598</v>
+      </c>
+      <c r="H80" t="s">
         <v>601</v>
       </c>
-      <c r="H80" t="s">
-        <v>604</v>
-      </c>
       <c r="I80" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3971,13 +3962,13 @@
         <v>468</v>
       </c>
       <c r="G83" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H83" t="s">
+        <v>605</v>
+      </c>
+      <c r="I83" t="s">
         <v>608</v>
-      </c>
-      <c r="I83" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4000,10 +3991,10 @@
         <v>469</v>
       </c>
       <c r="G84" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H84" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -4040,13 +4031,13 @@
         <v>406</v>
       </c>
       <c r="G86" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H86" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I86" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4091,7 +4082,7 @@
         <v>473</v>
       </c>
       <c r="H89" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4114,13 +4105,13 @@
         <v>406</v>
       </c>
       <c r="G90" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H90" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I90" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4143,10 +4134,10 @@
         <v>422</v>
       </c>
       <c r="G91" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H91" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -4169,13 +4160,13 @@
         <v>474</v>
       </c>
       <c r="G92" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H92" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I92" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4198,13 +4189,13 @@
         <v>420</v>
       </c>
       <c r="G93" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H93" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I93" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4241,13 +4232,13 @@
         <v>476</v>
       </c>
       <c r="G95" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H95" t="s">
+        <v>607</v>
+      </c>
+      <c r="I95" t="s">
         <v>610</v>
-      </c>
-      <c r="I95" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4270,13 +4261,13 @@
         <v>477</v>
       </c>
       <c r="G96" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H96" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I96" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4293,7 +4284,7 @@
         <v>423</v>
       </c>
       <c r="H97" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4310,7 +4301,7 @@
         <v>478</v>
       </c>
       <c r="H98" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4347,10 +4338,10 @@
         <v>420</v>
       </c>
       <c r="G100" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H100" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4387,13 +4378,13 @@
         <v>424</v>
       </c>
       <c r="G102" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H102" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I102" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4416,13 +4407,13 @@
         <v>481</v>
       </c>
       <c r="G103" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H103" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I103" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4445,10 +4436,10 @@
         <v>474</v>
       </c>
       <c r="G104" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H104" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4471,13 +4462,13 @@
         <v>482</v>
       </c>
       <c r="G105" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H105" t="s">
+        <v>607</v>
+      </c>
+      <c r="I105" t="s">
         <v>610</v>
-      </c>
-      <c r="I105" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4500,10 +4491,10 @@
         <v>483</v>
       </c>
       <c r="G106" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H106" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4526,10 +4517,10 @@
         <v>484</v>
       </c>
       <c r="G107" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H107" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4580,13 +4571,13 @@
         <v>474</v>
       </c>
       <c r="G110" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H110" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I110" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4651,13 +4642,13 @@
         <v>489</v>
       </c>
       <c r="G114" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H114" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I114" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4680,13 +4671,13 @@
         <v>490</v>
       </c>
       <c r="G115" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H115" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I115" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4703,7 +4694,7 @@
         <v>491</v>
       </c>
       <c r="H116" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4725,7 +4716,7 @@
         <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F118">
         <v>25</v>
@@ -4750,13 +4741,10 @@
         <v>245</v>
       </c>
       <c r="C120" t="s">
-        <v>388</v>
-      </c>
-      <c r="D120" t="s">
-        <v>389</v>
-      </c>
-      <c r="F120" t="s">
-        <v>494</v>
+        <v>611</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4770,10 +4758,10 @@
         <v>394</v>
       </c>
       <c r="F121" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H121" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4793,16 +4781,16 @@
         <v>402</v>
       </c>
       <c r="F122" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G122" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H122" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I122" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4825,13 +4813,13 @@
         <v>420</v>
       </c>
       <c r="G123" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H123" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I123" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4839,13 +4827,10 @@
         <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>388</v>
-      </c>
-      <c r="D124" t="s">
-        <v>398</v>
-      </c>
-      <c r="F124" t="s">
-        <v>497</v>
+        <v>611</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4859,7 +4844,7 @@
         <v>393</v>
       </c>
       <c r="F125" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4867,13 +4852,10 @@
         <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>388</v>
-      </c>
-      <c r="D126" t="s">
-        <v>391</v>
-      </c>
-      <c r="F126" t="s">
-        <v>499</v>
+        <v>611</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4887,10 +4869,10 @@
         <v>399</v>
       </c>
       <c r="F127" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H127" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4910,16 +4892,16 @@
         <v>400</v>
       </c>
       <c r="F128" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G128" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H128" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I128" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -4933,7 +4915,7 @@
         <v>393</v>
       </c>
       <c r="F129" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4953,16 +4935,16 @@
         <v>401</v>
       </c>
       <c r="F130" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G130" t="s">
+        <v>599</v>
+      </c>
+      <c r="H130" t="s">
         <v>602</v>
       </c>
-      <c r="H130" t="s">
-        <v>605</v>
-      </c>
       <c r="I130" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -4982,16 +4964,16 @@
         <v>404</v>
       </c>
       <c r="F131" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G131" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H131" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I131" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5019,7 +5001,7 @@
         <v>396</v>
       </c>
       <c r="F133" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5033,10 +5015,10 @@
         <v>395</v>
       </c>
       <c r="F134" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H134" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5056,16 +5038,16 @@
         <v>404</v>
       </c>
       <c r="F135" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G135" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H135" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I135" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5079,7 +5061,7 @@
         <v>398</v>
       </c>
       <c r="F136" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5099,16 +5081,16 @@
         <v>405</v>
       </c>
       <c r="F137" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G137" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H137" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I137" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5128,13 +5110,13 @@
         <v>404</v>
       </c>
       <c r="F138" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G138" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H138" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -5157,13 +5139,13 @@
         <v>462</v>
       </c>
       <c r="G139" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H139" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I139" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5177,7 +5159,7 @@
         <v>394</v>
       </c>
       <c r="F140" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5197,16 +5179,16 @@
         <v>405</v>
       </c>
       <c r="F141" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G141" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H141" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I141" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5220,7 +5202,7 @@
         <v>393</v>
       </c>
       <c r="F142" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5240,16 +5222,16 @@
         <v>403</v>
       </c>
       <c r="F143" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G143" t="s">
+        <v>600</v>
+      </c>
+      <c r="H143" t="s">
         <v>603</v>
       </c>
-      <c r="H143" t="s">
-        <v>606</v>
-      </c>
       <c r="I143" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5277,10 +5259,10 @@
         <v>396</v>
       </c>
       <c r="F145" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H145" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5300,13 +5282,13 @@
         <v>402</v>
       </c>
       <c r="F146" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G146" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H146" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -5320,10 +5302,10 @@
         <v>394</v>
       </c>
       <c r="F147" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H147" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -5337,7 +5319,7 @@
         <v>390</v>
       </c>
       <c r="F148" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -5351,10 +5333,10 @@
         <v>399</v>
       </c>
       <c r="F149" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H149" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -5377,10 +5359,10 @@
         <v>424</v>
       </c>
       <c r="G150" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H150" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -5394,7 +5376,7 @@
         <v>397</v>
       </c>
       <c r="F151" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -5414,13 +5396,13 @@
         <v>403</v>
       </c>
       <c r="F152" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G152" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H152" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -5440,16 +5422,16 @@
         <v>404</v>
       </c>
       <c r="F153" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G153" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H153" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I153" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -5469,16 +5451,16 @@
         <v>403</v>
       </c>
       <c r="F154" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G154" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H154" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I154" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -5492,10 +5474,10 @@
         <v>397</v>
       </c>
       <c r="F155" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H155" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -5515,16 +5497,16 @@
         <v>405</v>
       </c>
       <c r="F156" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G156" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H156" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I156" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -5544,16 +5526,16 @@
         <v>403</v>
       </c>
       <c r="F157" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G157" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H157" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I157" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -5581,7 +5563,7 @@
         <v>389</v>
       </c>
       <c r="F159" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -5604,13 +5586,13 @@
         <v>417</v>
       </c>
       <c r="G160" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H160" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I160" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5633,13 +5615,13 @@
         <v>417</v>
       </c>
       <c r="G161" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H161" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I161" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5659,16 +5641,16 @@
         <v>400</v>
       </c>
       <c r="F162" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G162" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H162" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I162" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5685,7 +5667,7 @@
         <v>455</v>
       </c>
       <c r="H163" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5708,13 +5690,13 @@
         <v>468</v>
       </c>
       <c r="G164" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H164" t="s">
+        <v>607</v>
+      </c>
+      <c r="I164" t="s">
         <v>610</v>
-      </c>
-      <c r="I164" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5728,7 +5710,7 @@
         <v>396</v>
       </c>
       <c r="F165" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5756,7 +5738,7 @@
         <v>396</v>
       </c>
       <c r="F167" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5770,10 +5752,10 @@
         <v>391</v>
       </c>
       <c r="F168" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H168" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5793,16 +5775,16 @@
         <v>405</v>
       </c>
       <c r="F169" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G169" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H169" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I169" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5822,13 +5804,13 @@
         <v>405</v>
       </c>
       <c r="F170" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G170" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H170" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5842,10 +5824,10 @@
         <v>394</v>
       </c>
       <c r="F171" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H171" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5859,7 +5841,7 @@
         <v>398</v>
       </c>
       <c r="F172" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5873,7 +5855,7 @@
         <v>393</v>
       </c>
       <c r="F173" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5896,13 +5878,13 @@
         <v>417</v>
       </c>
       <c r="G174" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H174" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I174" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5925,13 +5907,13 @@
         <v>424</v>
       </c>
       <c r="G175" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H175" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I175" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5951,13 +5933,13 @@
         <v>401</v>
       </c>
       <c r="F176" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G176" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H176" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -5971,10 +5953,10 @@
         <v>393</v>
       </c>
       <c r="F177" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H177" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -5988,7 +5970,7 @@
         <v>391</v>
       </c>
       <c r="F178" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6008,16 +5990,16 @@
         <v>401</v>
       </c>
       <c r="F179" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G179" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H179" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I179" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6051,16 +6033,16 @@
         <v>404</v>
       </c>
       <c r="F181" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G181" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H181" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I181" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6080,16 +6062,16 @@
         <v>401</v>
       </c>
       <c r="F182" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G182" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H182" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I182" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -6112,10 +6094,10 @@
         <v>422</v>
       </c>
       <c r="G183" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H183" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6129,7 +6111,7 @@
         <v>392</v>
       </c>
       <c r="F184" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6143,7 +6125,7 @@
         <v>390</v>
       </c>
       <c r="F185" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -6157,7 +6139,7 @@
         <v>390</v>
       </c>
       <c r="F186" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -6180,13 +6162,13 @@
         <v>418</v>
       </c>
       <c r="G187" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H187" t="s">
+        <v>606</v>
+      </c>
+      <c r="I187" t="s">
         <v>609</v>
-      </c>
-      <c r="I187" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -6200,7 +6182,7 @@
         <v>396</v>
       </c>
       <c r="F188" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6220,16 +6202,16 @@
         <v>401</v>
       </c>
       <c r="F189" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G189" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H189" t="s">
+        <v>607</v>
+      </c>
+      <c r="I189" t="s">
         <v>610</v>
-      </c>
-      <c r="I189" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -6243,10 +6225,10 @@
         <v>397</v>
       </c>
       <c r="F190" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H190" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6269,13 +6251,13 @@
         <v>406</v>
       </c>
       <c r="G191" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H191" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I191" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6295,16 +6277,16 @@
         <v>402</v>
       </c>
       <c r="F192" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G192" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H192" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I192" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -6318,7 +6300,7 @@
         <v>392</v>
       </c>
       <c r="F193" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -6346,7 +6328,7 @@
         <v>390</v>
       </c>
       <c r="F195" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -6366,16 +6348,16 @@
         <v>402</v>
       </c>
       <c r="F196" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G196" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H196" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I196" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -6389,10 +6371,10 @@
         <v>390</v>
       </c>
       <c r="F197" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H197" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -6415,13 +6397,13 @@
         <v>420</v>
       </c>
       <c r="G198" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H198" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I198" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -6441,16 +6423,16 @@
         <v>403</v>
       </c>
       <c r="F199" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G199" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H199" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I199" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -6467,7 +6449,7 @@
         <v>447</v>
       </c>
       <c r="H200" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -6481,7 +6463,7 @@
         <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -6495,7 +6477,7 @@
         <v>398</v>
       </c>
       <c r="F202" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -6529,16 +6511,16 @@
         <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G204" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H204" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I204" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -6558,13 +6540,13 @@
         <v>405</v>
       </c>
       <c r="F205" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G205" t="s">
+        <v>599</v>
+      </c>
+      <c r="H205" t="s">
         <v>602</v>
-      </c>
-      <c r="H205" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -6587,13 +6569,13 @@
         <v>474</v>
       </c>
       <c r="G206" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H206" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I206" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -6613,16 +6595,16 @@
         <v>402</v>
       </c>
       <c r="F207" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G207" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H207" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I207" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -6636,7 +6618,7 @@
         <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -6650,7 +6632,7 @@
         <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -6670,16 +6652,16 @@
         <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G210" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H210" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I210" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -6702,13 +6684,13 @@
         <v>424</v>
       </c>
       <c r="G211" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H211" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I211" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -6731,13 +6713,13 @@
         <v>418</v>
       </c>
       <c r="G212" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H212" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I212" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -6751,7 +6733,7 @@
         <v>390</v>
       </c>
       <c r="F213" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -6774,10 +6756,10 @@
         <v>422</v>
       </c>
       <c r="G214" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H214" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -6791,7 +6773,7 @@
         <v>393</v>
       </c>
       <c r="F215" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -6805,10 +6787,10 @@
         <v>399</v>
       </c>
       <c r="F216" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H216" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -6822,7 +6804,7 @@
         <v>392</v>
       </c>
       <c r="F217" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -6836,10 +6818,10 @@
         <v>390</v>
       </c>
       <c r="F218" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H218" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -6853,7 +6835,7 @@
         <v>397</v>
       </c>
       <c r="F219" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -6867,7 +6849,7 @@
         <v>399</v>
       </c>
       <c r="F220" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -6887,16 +6869,16 @@
         <v>403</v>
       </c>
       <c r="F221" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G221" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H221" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I221" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -6919,13 +6901,13 @@
         <v>422</v>
       </c>
       <c r="G222" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H222" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I222" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -6948,13 +6930,13 @@
         <v>422</v>
       </c>
       <c r="G223" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H223" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I223" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -6974,16 +6956,16 @@
         <v>400</v>
       </c>
       <c r="F224" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G224" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H224" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I224" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -7003,16 +6985,16 @@
         <v>400</v>
       </c>
       <c r="F225" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G225" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H225" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I225" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -7026,7 +7008,7 @@
         <v>398</v>
       </c>
       <c r="F226" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -7046,16 +7028,16 @@
         <v>401</v>
       </c>
       <c r="F227" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G227" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H227" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I227" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -7086,7 +7068,7 @@
         <v>419</v>
       </c>
       <c r="H229" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -7103,7 +7085,7 @@
         <v>455</v>
       </c>
       <c r="H230" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -7123,16 +7105,16 @@
         <v>401</v>
       </c>
       <c r="F231" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G231" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H231" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I231" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -7155,10 +7137,10 @@
         <v>418</v>
       </c>
       <c r="G232" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H232" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -7181,13 +7163,13 @@
         <v>432</v>
       </c>
       <c r="G233" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H233" t="s">
+        <v>605</v>
+      </c>
+      <c r="I233" t="s">
         <v>608</v>
-      </c>
-      <c r="I233" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -7201,7 +7183,7 @@
         <v>394</v>
       </c>
       <c r="F234" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -7215,7 +7197,7 @@
         <v>389</v>
       </c>
       <c r="F235" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -7238,13 +7220,13 @@
         <v>422</v>
       </c>
       <c r="G236" t="s">
+        <v>599</v>
+      </c>
+      <c r="H236" t="s">
         <v>602</v>
       </c>
-      <c r="H236" t="s">
-        <v>605</v>
-      </c>
       <c r="I236" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -7258,7 +7240,7 @@
         <v>398</v>
       </c>
       <c r="F237" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -7278,16 +7260,16 @@
         <v>402</v>
       </c>
       <c r="F238" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G238" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H238" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I238" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -7301,7 +7283,7 @@
         <v>391</v>
       </c>
       <c r="F239" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -7315,7 +7297,7 @@
         <v>399</v>
       </c>
       <c r="F240" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -7343,7 +7325,7 @@
         <v>394</v>
       </c>
       <c r="F242" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -7357,7 +7339,7 @@
         <v>397</v>
       </c>
       <c r="F243" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -7371,7 +7353,7 @@
         <v>399</v>
       </c>
       <c r="F244" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -7385,7 +7367,7 @@
         <v>394</v>
       </c>
       <c r="F245" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -7405,16 +7387,16 @@
         <v>401</v>
       </c>
       <c r="F246" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G246" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H246" t="s">
+        <v>605</v>
+      </c>
+      <c r="I246" t="s">
         <v>608</v>
-      </c>
-      <c r="I246" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -7437,13 +7419,13 @@
         <v>418</v>
       </c>
       <c r="G247" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H247" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I247" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -7471,7 +7453,7 @@
         <v>396</v>
       </c>
       <c r="F249" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -7485,7 +7467,7 @@
         <v>393</v>
       </c>
       <c r="F250" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -7499,10 +7481,10 @@
         <v>393</v>
       </c>
       <c r="F251" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H251" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -7522,16 +7504,16 @@
         <v>404</v>
       </c>
       <c r="F252" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G252" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H252" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I252" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -7545,10 +7527,10 @@
         <v>399</v>
       </c>
       <c r="F253" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H253" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -7571,13 +7553,13 @@
         <v>406</v>
       </c>
       <c r="G254" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H254" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I254" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -7591,7 +7573,7 @@
         <v>399</v>
       </c>
       <c r="F255" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -7611,16 +7593,16 @@
         <v>400</v>
       </c>
       <c r="F256" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G256" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H256" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I256" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -7634,7 +7616,7 @@
         <v>398</v>
       </c>
       <c r="F257" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -7651,7 +7633,7 @@
         <v>423</v>
       </c>
       <c r="H258" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -7671,16 +7653,16 @@
         <v>400</v>
       </c>
       <c r="F259" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G259" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H259" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I259" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -7714,16 +7696,16 @@
         <v>405</v>
       </c>
       <c r="F261" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G261" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H261" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I261" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/Sample/chronogramme.xlsx
+++ b/Sample/chronogramme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien.mousqueton@computacenter.com/Code/rempar/Sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E8C2E-EC26-F347-AAF0-990B6989D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED600D-6D56-BF4F-990E-F874D98B2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="615">
   <si>
     <t>id</t>
   </si>
@@ -992,9 +992,6 @@
   </si>
   <si>
     <t>16:20</t>
-  </si>
-  <si>
-    <t>16:25</t>
   </si>
   <si>
     <t>16:30</t>
@@ -1865,6 +1862,18 @@
   </si>
   <si>
     <t>decompte</t>
+  </si>
+  <si>
+    <t>ANSSI</t>
+  </si>
+  <si>
+    <t>CEA</t>
+  </si>
+  <si>
+    <t>CERT-FR</t>
+  </si>
+  <si>
+    <t>aléatoire</t>
   </si>
 </sst>
 </file>
@@ -1923,11 +1932,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2234,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2243,6 +2254,9 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2282,22 +2296,22 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2308,25 +2322,25 @@
         <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2334,13 +2348,13 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2351,25 +2365,25 @@
         <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2377,16 +2391,16 @@
         <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,13 +2408,13 @@
         <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2408,16 +2422,16 @@
         <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,25 +2442,25 @@
         <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2454,16 +2468,16 @@
         <v>135</v>
       </c>
       <c r="C10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" t="s">
         <v>388</v>
       </c>
-      <c r="D10" t="s">
-        <v>389</v>
-      </c>
       <c r="F10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2471,16 +2485,16 @@
         <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2488,13 +2502,13 @@
         <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2505,25 +2519,25 @@
         <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2534,22 +2548,22 @@
         <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2560,25 +2574,25 @@
         <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2586,16 +2600,16 @@
         <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2606,25 +2620,25 @@
         <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,13 +2646,13 @@
         <v>143</v>
       </c>
       <c r="C18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" t="s">
         <v>388</v>
       </c>
-      <c r="D18" t="s">
-        <v>389</v>
-      </c>
       <c r="F18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2649,22 +2663,22 @@
         <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2672,13 +2686,13 @@
         <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2689,25 +2703,25 @@
         <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" t="s">
         <v>405</v>
       </c>
-      <c r="F21" t="s">
-        <v>406</v>
-      </c>
       <c r="G21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2718,25 +2732,25 @@
         <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2747,25 +2761,25 @@
         <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2773,13 +2787,13 @@
         <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2787,13 +2801,13 @@
         <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2801,13 +2815,13 @@
         <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2815,13 +2829,13 @@
         <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2829,13 +2843,13 @@
         <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2846,25 +2860,25 @@
         <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2872,13 +2886,13 @@
         <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2889,25 +2903,25 @@
         <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2918,25 +2932,25 @@
         <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2944,13 +2958,13 @@
         <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2958,13 +2972,13 @@
         <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2975,25 +2989,25 @@
         <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3001,13 +3015,13 @@
         <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3015,16 +3029,16 @@
         <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3032,13 +3046,13 @@
         <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3049,22 +3063,22 @@
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3075,22 +3089,22 @@
         <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3101,25 +3115,25 @@
         <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3127,13 +3141,13 @@
         <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3141,16 +3155,16 @@
         <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,13 +3172,13 @@
         <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3172,13 +3186,13 @@
         <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3189,25 +3203,25 @@
         <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3218,22 +3232,22 @@
         <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G47" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3241,13 +3255,13 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3255,13 +3269,13 @@
         <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3269,13 +3283,13 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3283,13 +3297,13 @@
         <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3297,13 +3311,13 @@
         <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3311,16 +3325,16 @@
         <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H53" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3328,13 +3342,13 @@
         <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3345,25 +3359,25 @@
         <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G55" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I55" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3374,25 +3388,25 @@
         <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G56" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I56" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,25 +3417,25 @@
         <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I57" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3432,25 +3446,25 @@
         <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I58" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3458,13 +3472,13 @@
         <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -3475,25 +3489,25 @@
         <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G60" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I60" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3501,13 +3515,13 @@
         <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3515,13 +3529,13 @@
         <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3532,25 +3546,25 @@
         <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3561,25 +3575,25 @@
         <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3590,25 +3604,25 @@
         <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G65" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3616,13 +3630,13 @@
         <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3630,16 +3644,16 @@
         <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H67" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3647,16 +3661,16 @@
         <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F68" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H68" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3664,13 +3678,13 @@
         <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3681,25 +3695,25 @@
         <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E70" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F70" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G70" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H70" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I70" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3707,13 +3721,13 @@
         <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3724,25 +3738,25 @@
         <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H72" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I72" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3750,13 +3764,13 @@
         <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3764,16 +3778,16 @@
         <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3784,22 +3798,22 @@
         <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F75" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G75" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H75" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3810,22 +3824,22 @@
         <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G76" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3833,13 +3847,13 @@
         <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F77" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3850,25 +3864,25 @@
         <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H78" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I78" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3876,13 +3890,13 @@
         <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3893,25 +3907,25 @@
         <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D80" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" t="s">
         <v>399</v>
       </c>
-      <c r="E80" t="s">
-        <v>400</v>
-      </c>
       <c r="F80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G80" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3919,13 +3933,13 @@
         <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3933,13 +3947,13 @@
         <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D82" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3950,25 +3964,25 @@
         <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F83" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I83" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3979,22 +3993,22 @@
         <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -4002,13 +4016,13 @@
         <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D85" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -4019,25 +4033,25 @@
         <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D86" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E86" t="s">
+        <v>404</v>
+      </c>
+      <c r="F86" t="s">
         <v>405</v>
       </c>
-      <c r="F86" t="s">
-        <v>406</v>
-      </c>
       <c r="G86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H86" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I86" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4045,13 +4059,13 @@
         <v>212</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4059,13 +4073,13 @@
         <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F88" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -4073,16 +4087,16 @@
         <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4093,25 +4107,25 @@
         <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G90" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I90" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4122,22 +4136,22 @@
         <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G91" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -4148,25 +4162,25 @@
         <v>217</v>
       </c>
       <c r="C92" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G92" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H92" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I92" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4177,25 +4191,25 @@
         <v>218</v>
       </c>
       <c r="C93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E93" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G93" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H93" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I93" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4203,13 +4217,13 @@
         <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F94" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4220,25 +4234,25 @@
         <v>220</v>
       </c>
       <c r="C95" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F95" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G95" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I95" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4249,25 +4263,25 @@
         <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F96" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G96" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H96" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I96" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4275,16 +4289,16 @@
         <v>222</v>
       </c>
       <c r="C97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H97" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4292,16 +4306,16 @@
         <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D98" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4309,13 +4323,13 @@
         <v>224</v>
       </c>
       <c r="C99" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4326,22 +4340,22 @@
         <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D100" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H100" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4349,13 +4363,13 @@
         <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F101" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4366,25 +4380,25 @@
         <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F102" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G102" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H102" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I102" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4395,25 +4409,25 @@
         <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F103" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H103" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I103" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4424,22 +4438,22 @@
         <v>229</v>
       </c>
       <c r="C104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E104" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G104" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H104" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4450,25 +4464,25 @@
         <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D105" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E105" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F105" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G105" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I105" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4479,22 +4493,22 @@
         <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G106" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H106" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4505,22 +4519,22 @@
         <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F107" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G107" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H107" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4528,13 +4542,13 @@
         <v>233</v>
       </c>
       <c r="C108" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D108" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F108" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4542,13 +4556,13 @@
         <v>234</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F109" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4559,25 +4573,25 @@
         <v>235</v>
       </c>
       <c r="C110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E110" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F110" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G110" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H110" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I110" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4585,13 +4599,13 @@
         <v>236</v>
       </c>
       <c r="C111" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D111" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F111" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4599,13 +4613,13 @@
         <v>237</v>
       </c>
       <c r="C112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4613,13 +4627,13 @@
         <v>238</v>
       </c>
       <c r="C113" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D113" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F113" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4630,25 +4644,25 @@
         <v>239</v>
       </c>
       <c r="C114" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F114" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G114" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H114" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I114" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4659,25 +4673,25 @@
         <v>240</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D115" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F115" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G115" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H115" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I115" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4685,16 +4699,16 @@
         <v>241</v>
       </c>
       <c r="C116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F116" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H116" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4702,13 +4716,13 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D117" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4716,7 +4730,7 @@
         <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F118">
         <v>25</v>
@@ -4727,13 +4741,13 @@
         <v>244</v>
       </c>
       <c r="C119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D119" t="s">
-        <v>395</v>
+        <v>613</v>
       </c>
       <c r="F119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4741,7 +4755,7 @@
         <v>245</v>
       </c>
       <c r="C120" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F120">
         <v>5</v>
@@ -4752,16 +4766,16 @@
         <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F121" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H121" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4772,25 +4786,25 @@
         <v>247</v>
       </c>
       <c r="C122" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F122" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G122" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H122" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I122" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4801,25 +4815,25 @@
         <v>248</v>
       </c>
       <c r="C123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D123" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F123" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G123" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H123" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I123" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4827,7 +4841,7 @@
         <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F124">
         <v>5</v>
@@ -4838,13 +4852,13 @@
         <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D125" t="s">
-        <v>393</v>
+        <v>612</v>
       </c>
       <c r="F125" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4852,7 +4866,7 @@
         <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -4863,16 +4877,16 @@
         <v>252</v>
       </c>
       <c r="C127" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F127" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H127" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4883,25 +4897,25 @@
         <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D128" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G128" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H128" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I128" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -4909,13 +4923,13 @@
         <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D129" t="s">
-        <v>393</v>
+        <v>611</v>
       </c>
       <c r="F129" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4926,25 +4940,25 @@
         <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E130" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G130" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H130" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I130" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -4955,25 +4969,25 @@
         <v>256</v>
       </c>
       <c r="C131" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D131" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E131" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F131" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G131" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H131" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I131" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -4981,13 +4995,13 @@
         <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D132" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F132" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -4995,13 +5009,13 @@
         <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D133" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F133" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5009,16 +5023,16 @@
         <v>259</v>
       </c>
       <c r="C134" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F134" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H134" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5029,25 +5043,25 @@
         <v>260</v>
       </c>
       <c r="C135" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F135" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G135" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H135" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I135" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5055,13 +5069,13 @@
         <v>261</v>
       </c>
       <c r="C136" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D136" t="s">
-        <v>398</v>
+        <v>614</v>
       </c>
       <c r="F136" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5072,25 +5086,25 @@
         <v>262</v>
       </c>
       <c r="C137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E137" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F137" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G137" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H137" t="s">
+        <v>606</v>
+      </c>
+      <c r="I137" t="s">
         <v>607</v>
-      </c>
-      <c r="I137" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5101,22 +5115,22 @@
         <v>263</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D138" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E138" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F138" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G138" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H138" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -5127,25 +5141,25 @@
         <v>264</v>
       </c>
       <c r="C139" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E139" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F139" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G139" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H139" t="s">
+        <v>606</v>
+      </c>
+      <c r="I139" t="s">
         <v>607</v>
-      </c>
-      <c r="I139" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5153,13 +5167,13 @@
         <v>265</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D140" t="s">
-        <v>394</v>
+        <v>614</v>
       </c>
       <c r="F140" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5170,25 +5184,25 @@
         <v>266</v>
       </c>
       <c r="C141" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D141" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F141" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G141" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H141" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I141" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5196,13 +5210,13 @@
         <v>267</v>
       </c>
       <c r="C142" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D142" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F142" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5213,25 +5227,25 @@
         <v>268</v>
       </c>
       <c r="C143" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E143" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F143" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G143" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H143" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I143" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5239,13 +5253,13 @@
         <v>269</v>
       </c>
       <c r="C144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D144" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -5253,16 +5267,16 @@
         <v>270</v>
       </c>
       <c r="C145" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D145" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F145" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H145" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5273,22 +5287,22 @@
         <v>271</v>
       </c>
       <c r="C146" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D146" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E146" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F146" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G146" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H146" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -5296,16 +5310,16 @@
         <v>272</v>
       </c>
       <c r="C147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D147" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F147" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H147" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -5313,13 +5327,13 @@
         <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D148" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F148" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -5327,16 +5341,16 @@
         <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D149" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F149" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H149" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -5347,22 +5361,22 @@
         <v>275</v>
       </c>
       <c r="C150" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E150" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F150" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G150" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H150" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -5370,13 +5384,13 @@
         <v>276</v>
       </c>
       <c r="C151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D151" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F151" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -5387,22 +5401,22 @@
         <v>277</v>
       </c>
       <c r="C152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F152" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G152" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H152" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -5413,25 +5427,25 @@
         <v>278</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D153" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E153" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F153" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G153" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H153" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I153" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -5442,25 +5456,25 @@
         <v>279</v>
       </c>
       <c r="C154" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D154" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F154" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G154" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H154" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I154" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -5468,16 +5482,16 @@
         <v>280</v>
       </c>
       <c r="C155" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F155" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H155" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -5488,25 +5502,25 @@
         <v>281</v>
       </c>
       <c r="C156" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D156" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E156" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F156" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G156" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H156" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I156" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -5517,25 +5531,25 @@
         <v>282</v>
       </c>
       <c r="C157" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D157" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E157" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F157" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G157" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H157" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I157" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -5543,13 +5557,13 @@
         <v>283</v>
       </c>
       <c r="C158" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D158" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F158" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -5557,13 +5571,13 @@
         <v>284</v>
       </c>
       <c r="C159" t="s">
+        <v>387</v>
+      </c>
+      <c r="D159" t="s">
         <v>388</v>
       </c>
-      <c r="D159" t="s">
-        <v>389</v>
-      </c>
       <c r="F159" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -5574,25 +5588,25 @@
         <v>285</v>
       </c>
       <c r="C160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D160" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E160" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G160" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H160" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I160" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5603,25 +5617,25 @@
         <v>286</v>
       </c>
       <c r="C161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F161" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G161" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H161" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I161" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5632,25 +5646,25 @@
         <v>287</v>
       </c>
       <c r="C162" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D162" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E162" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F162" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H162" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I162" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5658,16 +5672,16 @@
         <v>288</v>
       </c>
       <c r="C163" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" t="s">
         <v>388</v>
       </c>
-      <c r="D163" t="s">
-        <v>389</v>
-      </c>
       <c r="F163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H163" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5678,25 +5692,25 @@
         <v>289</v>
       </c>
       <c r="C164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D164" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E164" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F164" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G164" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H164" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I164" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5704,13 +5718,13 @@
         <v>290</v>
       </c>
       <c r="C165" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D165" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F165" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5718,13 +5732,13 @@
         <v>291</v>
       </c>
       <c r="C166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D166" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F166" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5732,13 +5746,13 @@
         <v>292</v>
       </c>
       <c r="C167" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D167" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F167" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5746,16 +5760,16 @@
         <v>293</v>
       </c>
       <c r="C168" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D168" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F168" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H168" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5766,25 +5780,25 @@
         <v>294</v>
       </c>
       <c r="C169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E169" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F169" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H169" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I169" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5795,22 +5809,22 @@
         <v>295</v>
       </c>
       <c r="C170" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D170" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E170" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F170" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H170" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5818,16 +5832,16 @@
         <v>296</v>
       </c>
       <c r="C171" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D171" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F171" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H171" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5835,13 +5849,13 @@
         <v>297</v>
       </c>
       <c r="C172" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D172" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F172" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5849,13 +5863,13 @@
         <v>298</v>
       </c>
       <c r="C173" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F173" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5866,25 +5880,25 @@
         <v>299</v>
       </c>
       <c r="C174" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D174" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F174" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G174" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H174" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I174" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5895,25 +5909,25 @@
         <v>300</v>
       </c>
       <c r="C175" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D175" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F175" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G175" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H175" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I175" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5924,22 +5938,22 @@
         <v>301</v>
       </c>
       <c r="C176" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D176" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E176" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F176" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G176" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H176" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -5947,16 +5961,16 @@
         <v>302</v>
       </c>
       <c r="C177" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F177" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H177" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -5964,13 +5978,13 @@
         <v>303</v>
       </c>
       <c r="C178" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D178" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F178" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -5981,25 +5995,25 @@
         <v>304</v>
       </c>
       <c r="C179" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D179" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E179" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F179" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G179" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H179" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I179" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6007,13 +6021,13 @@
         <v>305</v>
       </c>
       <c r="C180" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D180" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F180" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6024,25 +6038,25 @@
         <v>306</v>
       </c>
       <c r="C181" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D181" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E181" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F181" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G181" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H181" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I181" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6053,25 +6067,25 @@
         <v>307</v>
       </c>
       <c r="C182" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D182" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E182" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F182" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G182" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H182" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I182" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -6082,22 +6096,22 @@
         <v>308</v>
       </c>
       <c r="C183" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D183" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E183" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F183" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G183" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H183" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6105,13 +6119,13 @@
         <v>309</v>
       </c>
       <c r="C184" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D184" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F184" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6119,13 +6133,13 @@
         <v>310</v>
       </c>
       <c r="C185" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D185" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F185" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -6133,13 +6147,13 @@
         <v>311</v>
       </c>
       <c r="C186" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D186" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F186" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -6150,25 +6164,25 @@
         <v>312</v>
       </c>
       <c r="C187" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D187" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E187" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F187" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G187" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H187" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I187" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -6176,13 +6190,13 @@
         <v>313</v>
       </c>
       <c r="C188" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D188" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F188" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6193,25 +6207,25 @@
         <v>314</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D189" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E189" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F189" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G189" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H189" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I189" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -6219,16 +6233,16 @@
         <v>315</v>
       </c>
       <c r="C190" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D190" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F190" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H190" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6239,25 +6253,25 @@
         <v>316</v>
       </c>
       <c r="C191" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D191" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E191" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F191" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G191" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H191" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I191" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6268,25 +6282,25 @@
         <v>317</v>
       </c>
       <c r="C192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D192" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E192" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F192" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G192" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H192" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I192" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -6294,13 +6308,13 @@
         <v>318</v>
       </c>
       <c r="C193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D193" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -6308,13 +6322,13 @@
         <v>319</v>
       </c>
       <c r="C194" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D194" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F194" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -6322,42 +6336,42 @@
         <v>320</v>
       </c>
       <c r="C195" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F195" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>98</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>321</v>
       </c>
       <c r="C196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D196" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E196" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F196" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G196" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H196" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I196" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -6365,16 +6379,16 @@
         <v>322</v>
       </c>
       <c r="C197" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D197" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H197" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -6385,113 +6399,113 @@
         <v>323</v>
       </c>
       <c r="C198" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D198" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F198" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G198" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H198" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I198" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>100</v>
       </c>
-      <c r="B199" t="s">
-        <v>324</v>
+      <c r="B199" s="3">
+        <v>0.68125000000000002</v>
       </c>
       <c r="C199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D199" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E199" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F199" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G199" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H199" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I199" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C200" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D200" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F200" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H200" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C201" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D201" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C202" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D202" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C203" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D203" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -6499,28 +6513,28 @@
         <v>101</v>
       </c>
       <c r="B204" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C204" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D204" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G204" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H204" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I204" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -6528,25 +6542,25 @@
         <v>102</v>
       </c>
       <c r="B205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C205" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D205" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F205" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G205" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H205" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -6554,28 +6568,28 @@
         <v>103</v>
       </c>
       <c r="B206" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C206" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D206" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E206" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G206" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H206" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I206" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -6583,56 +6597,56 @@
         <v>104</v>
       </c>
       <c r="B207" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C207" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D207" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G207" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H207" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I207" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C208" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D208" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C209" t="s">
+        <v>387</v>
+      </c>
+      <c r="D209" t="s">
         <v>388</v>
       </c>
-      <c r="D209" t="s">
-        <v>389</v>
-      </c>
       <c r="F209" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -6640,28 +6654,28 @@
         <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C210" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D210" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E210" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G210" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H210" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I210" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -6669,28 +6683,28 @@
         <v>106</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C211" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D211" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G211" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H211" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I211" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -6698,42 +6712,42 @@
         <v>107</v>
       </c>
       <c r="B212" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C212" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D212" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E212" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G212" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H212" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I212" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D213" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F213" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -6741,115 +6755,115 @@
         <v>108</v>
       </c>
       <c r="B214" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C214" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D214" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G214" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H214" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C215" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D215" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F215" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C216" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D216" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F216" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H216" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D217" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F217" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C218" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D218" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F218" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H218" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C219" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D219" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F219" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C220" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D220" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F220" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -6857,28 +6871,28 @@
         <v>109</v>
       </c>
       <c r="B221" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C221" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D221" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E221" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F221" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G221" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H221" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I221" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -6886,28 +6900,28 @@
         <v>110</v>
       </c>
       <c r="B222" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C222" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D222" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E222" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G222" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H222" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I222" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -6915,28 +6929,28 @@
         <v>111</v>
       </c>
       <c r="B223" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C223" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D223" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E223" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G223" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H223" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I223" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -6944,28 +6958,28 @@
         <v>112</v>
       </c>
       <c r="B224" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C224" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D224" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E224" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F224" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G224" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H224" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I224" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6973,42 +6987,42 @@
         <v>113</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D225" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E225" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F225" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G225" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H225" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I225" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D226" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F226" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -7016,76 +7030,76 @@
         <v>114</v>
       </c>
       <c r="B227" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C227" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D227" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E227" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F227" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G227" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H227" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I227" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C228" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D228" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F228" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C229" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D229" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F229" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H229" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C230" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D230" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F230" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H230" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -7093,28 +7107,28 @@
         <v>115</v>
       </c>
       <c r="B231" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C231" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D231" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E231" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F231" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G231" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H231" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I231" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -7122,25 +7136,25 @@
         <v>116</v>
       </c>
       <c r="B232" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C232" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D232" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E232" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F232" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G232" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H232" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -7148,56 +7162,56 @@
         <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C233" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D233" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E233" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G233" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H233" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I233" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C234" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D234" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F234" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C235" t="s">
+        <v>387</v>
+      </c>
+      <c r="D235" t="s">
         <v>388</v>
       </c>
-      <c r="D235" t="s">
-        <v>389</v>
-      </c>
       <c r="F235" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -7205,42 +7219,42 @@
         <v>118</v>
       </c>
       <c r="B236" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D236" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E236" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F236" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G236" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H236" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I236" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C237" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D237" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F237" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -7248,126 +7262,126 @@
         <v>119</v>
       </c>
       <c r="B238" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C238" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D238" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E238" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F238" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G238" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H238" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I238" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C239" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D239" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F239" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C240" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D240" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F240" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C241" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D241" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C242" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D242" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F242" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C243" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D243" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F243" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C244" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D244" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F244" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C245" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D245" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F245" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -7375,28 +7389,28 @@
         <v>120</v>
       </c>
       <c r="B246" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D246" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E246" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F246" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G246" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H246" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I246" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -7404,87 +7418,87 @@
         <v>121</v>
       </c>
       <c r="B247" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C247" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D247" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E247" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F247" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G247" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H247" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I247" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C248" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F248" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C249" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D249" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F249" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C250" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D250" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F250" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C251" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F251" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H251" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -7492,45 +7506,45 @@
         <v>122</v>
       </c>
       <c r="B252" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C252" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D252" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E252" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F252" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G252" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H252" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I252" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C253" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D253" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F253" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H253" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -7538,42 +7552,42 @@
         <v>123</v>
       </c>
       <c r="B254" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C254" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D254" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E254" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F254" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G254" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H254" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I254" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C255" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D255" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F255" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -7581,59 +7595,59 @@
         <v>124</v>
       </c>
       <c r="B256" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C256" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D256" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E256" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F256" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G256" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H256" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I256" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C257" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D257" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F257" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C258" t="s">
+        <v>387</v>
+      </c>
+      <c r="D258" t="s">
         <v>388</v>
       </c>
-      <c r="D258" t="s">
-        <v>389</v>
-      </c>
       <c r="F258" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H258" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -7641,42 +7655,42 @@
         <v>125</v>
       </c>
       <c r="B259" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C259" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D259" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E259" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F259" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G259" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H259" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I259" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C260" t="s">
+        <v>387</v>
+      </c>
+      <c r="D260" t="s">
         <v>388</v>
       </c>
-      <c r="D260" t="s">
-        <v>389</v>
-      </c>
       <c r="F260" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -7684,28 +7698,28 @@
         <v>126</v>
       </c>
       <c r="B261" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C261" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D261" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E261" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F261" t="s">
+        <v>591</v>
+      </c>
+      <c r="G261" t="s">
         <v>592</v>
       </c>
-      <c r="G261" t="s">
-        <v>593</v>
-      </c>
       <c r="H261" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I261" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
